--- a/Input/April_International_Africa/benefits.xlsx
+++ b/Input/April_International_Africa/benefits.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="127">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -194,6 +194,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Worldwide excluding USA &amp; Carribean/Worldwide including USA/</t>
     </r>
@@ -203,6 +204,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Africa including India, Sri Lanka, Bangladesh and Pakistan</t>
     </r>
@@ -284,7 +286,23 @@
     <t xml:space="preserve">Worldwide excluding USA &amp; Carribean</t>
   </si>
   <si>
-    <t xml:space="preserve">NIL excess/NIL excess</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">USD 100 excess (default)/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">USD 100 excess (default)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">single</t>
@@ -325,7 +343,23 @@
     <t xml:space="preserve">Worldwide including USA</t>
   </si>
   <si>
-    <t xml:space="preserve">USD 200 excess/USD 200 excess</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">NIL excess (optional)/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">NIL excess (optional)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Platinum</t>
@@ -362,7 +396,7 @@
     <t xml:space="preserve">USD 500 excess</t>
   </si>
   <si>
-    <t xml:space="preserve">USD 500 excess/USD 500 excess</t>
+    <t xml:space="preserve">Africa including India, Sri Lanka, Bangladesh and Pakistan</t>
   </si>
   <si>
     <t xml:space="preserve">Platinum Plus</t>
@@ -400,46 +434,40 @@
     <t xml:space="preserve">USD 1,000 excess</t>
   </si>
   <si>
+    <t xml:space="preserve">USD 2,000 excess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD 5,000 excess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD 10,000 excess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD 20,000 excess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIL excess/NIL excess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD 200 excess/USD 200 excess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD 500 excess/USD 500 excess</t>
+  </si>
+  <si>
     <t xml:space="preserve">USD 1,000 excess/USD 1,000 excess</t>
   </si>
   <si>
-    <t xml:space="preserve">USD 2,000 excess</t>
-  </si>
-  <si>
     <t xml:space="preserve">USD 2,000 excess/USD 2,000 excess</t>
   </si>
   <si>
-    <t xml:space="preserve">USD 5,000 excess</t>
-  </si>
-  <si>
     <t xml:space="preserve">USD 5,000 excess/USD 5,000 excess</t>
   </si>
   <si>
-    <t xml:space="preserve">USD 10,000 excess</t>
-  </si>
-  <si>
     <t xml:space="preserve">USD 10,000 excess/USD 10,000 excess</t>
   </si>
   <si>
-    <t xml:space="preserve">USD 20,000 excess</t>
-  </si>
-  <si>
     <t xml:space="preserve">USD 20,000 excess/USD 20,000 excess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD 100 excess (default)/USD 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIL excess (optional)/NIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">april_international_row</t>
   </si>
 </sst>
 </file>
@@ -450,7 +478,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -477,19 +505,31 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -534,7 +574,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -563,6 +603,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,11 +630,11 @@
   </sheetPr>
   <dimension ref="A1:BC9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AQ1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AY8" activeCellId="0" sqref="AY8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AW1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BB4" activeCellId="0" sqref="BB4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="67.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="51.78"/>
@@ -603,6 +651,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="18.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="33.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="35.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="34.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -907,7 +956,7 @@
       <c r="BA2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="BB2" s="0" t="s">
+      <c r="BB2" s="2" t="s">
         <v>80</v>
       </c>
       <c r="BC2" s="0" t="s">
@@ -1042,7 +1091,7 @@
       <c r="BA3" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="BB3" s="0" t="s">
+      <c r="BB3" s="2" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1165,7 +1214,8 @@
       <c r="AY4" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="BB4" s="0" t="s">
+      <c r="AZ4" s="7"/>
+      <c r="BA4" s="8" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1288,48 +1338,33 @@
       <c r="AY5" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="BB5" s="0" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU6" s="0"/>
       <c r="AV6" s="1"/>
       <c r="AY6" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="BB6" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU7" s="0"/>
       <c r="AV7" s="1"/>
       <c r="AY7" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="BB7" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU8" s="0"/>
       <c r="AV8" s="1"/>
       <c r="AY8" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="BB8" s="0" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AU9" s="0"/>
       <c r="AV9" s="1"/>
       <c r="AY9" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="BB9" s="0" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1348,203 +1383,95 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.42"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>125</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3"/>
+      <c r="C11" s="5"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3"/>
       <c r="C12" s="1"/>
-      <c r="F12" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>93</v>
-      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="1"/>
-      <c r="F13" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="1"/>
-      <c r="F14" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="1"/>
-      <c r="F15" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>117</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="1"/>
-      <c r="F16" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="1"/>
-      <c r="F17" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="1"/>
-      <c r="F18" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>123</v>
-      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
